--- a/DOM_Banner/output/dept_banner/Saad Kubba_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Saad Kubba_2022.xlsx
@@ -1042,7 +1042,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2045300262", "https://openalex.org/W3113216408", "https://openalex.org/W2362699993", "https://openalex.org/W4376630782", "https://openalex.org/W2549279049", "https://openalex.org/W2596607501", "https://openalex.org/W1997789843", "https://openalex.org/W2779180629", "https://openalex.org/W2094813351", "https://openalex.org/W2011390101")</t>
+          <t>c("https://openalex.org/W4376630782", "https://openalex.org/W2011390101", "https://openalex.org/W2055328644", "https://openalex.org/W187006441", "https://openalex.org/W2126428213", "https://openalex.org/W4232019426", "https://openalex.org/W2403796750", "https://openalex.org/W4385397996", "https://openalex.org/W3110630109", "https://openalex.org/W3090392807")</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Saad Kubba_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Saad Kubba_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,24 +452,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Internal Medicine, University of Arizona, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225309819</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Oxygen Utilization as a Primary Mediator of Age-Related Functional Decline in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -472,14 +477,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3045</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3045</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,24 +539,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Pulmonary Critical Care Department, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary Critical Care, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary Critical Care Medicine, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; University of Arizona Hospital, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Cardiology, Banner University Medical Center - Tucson, Tucson, AZ, United States; Cardiology, Banner University Medical Center - Tucson, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225320154</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>To Drain or Not to Drain: Hemodynamic Characterization of Tamponade in PAH</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -554,14 +564,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4479</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4479</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Univ of Arizona, Tucson, Tucson, AZ; Univ of Arizona, Tucson, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; MAYO CLINIC, Rochester, MN; Univ of Arizona, Tucson, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380794516</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Abstract 11774: Heart Failure With Preserved Ejection Fraction Secondary to Coronary Endothelial Dysfunction and Microvascular Disease</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.11774</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.11774</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Univ of Arizona, Tucson, AZ; Somerville, MA; Univ of Arizona, Tucson, AZ; Univ of Arizona COM Tucson, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; Tucson, AZ; Univ of Arizona, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; The Univ of Arizona, Tucson, AZ; Univ of Arizona Hosp, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380795756</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Abstract 14581: Massive Sinus of Valsalva Aneurysm With Rupture Into the Right Atrium</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14581</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14581</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
